--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2944897.146975804</v>
+        <v>2943009.565459402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>360.4619742408227</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.25025504144566</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>173.5347964757137</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>49.82207779831539</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.4866385018644</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.8783469293132</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7356466614538</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>126.5499088748945</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.9044597735918</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7955476484023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603053</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>66.9044597735918</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916437</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>43.7217001535054</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>33.35146980185767</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>123.0027095470051</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>42.92025750556907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>22.14609241444841</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463136</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>945.6119145756962</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>555.4725825998845</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.8413109986426</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>552.8413109986426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>552.8413109986426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>552.8413109986426</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.8413109986426</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2591.795070439306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2591.795070439306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U7" t="n">
-        <v>99.5995062532301</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V7" t="n">
-        <v>99.5995062532301</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977587</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371758</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304253</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041709</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>164.7973538578533</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5437,46 +5437,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
         <v>278.8655562905255</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635878</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,25 +5695,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,13 +5838,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028587</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1031.047511774571</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>776.3630235686837</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984818</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705748</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705748</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705748</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705748</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799362</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570728</v>
+        <v>420.3226148324563</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570728</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="X28" t="n">
-        <v>696.2811958984818</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="Y28" t="n">
-        <v>696.2811958984818</v>
+        <v>130.9054447954956</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542183</v>
+        <v>439.5324299542195</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076821</v>
+        <v>326.3571123076836</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076821</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475114</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030872</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6886,22 +6886,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,34 +6947,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,16 +7023,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,43 +7175,43 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229683</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506737</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504524</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045217</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010327</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>85.30006332127829</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>18.73797368291389</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.3420956754257</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628571</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>40.6782523069337</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>242.515652245072</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.14209866152</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>102.7069458420322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>48.31044851244303</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.07169897992567</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979417</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794348.8748523082</v>
+        <v>794348.8748523083</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801376.4952673644</v>
+        <v>801376.4952673643</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="D2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>650915.4197524311</v>
+      </c>
+      <c r="L2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="M2" t="n">
+        <v>656833.4158914261</v>
+      </c>
+      <c r="N2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="E2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="K2" t="n">
-        <v>650915.4197524315</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.4158914268</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="O2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284579</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819113</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819122</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730517</v>
+        <v>-181626.4091730514</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414924</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.470041493</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214944</v>
+        <v>-13772.93355812179</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447465</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447466</v>
+        <v>511387.1029187744</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447465</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447466</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521536</v>
+        <v>334963.8837261816</v>
       </c>
       <c r="K6" t="n">
-        <v>469785.3758182958</v>
+        <v>469766.8820803609</v>
       </c>
       <c r="L6" t="n">
-        <v>504182.0084423435</v>
+        <v>504182.0084423437</v>
       </c>
       <c r="M6" t="n">
-        <v>379723.9000093727</v>
+        <v>379723.9000093724</v>
       </c>
       <c r="N6" t="n">
-        <v>514524.9152432102</v>
+        <v>514524.91524321</v>
       </c>
       <c r="O6" t="n">
-        <v>514524.91524321</v>
+        <v>514524.9152432107</v>
       </c>
       <c r="P6" t="n">
-        <v>470362.3099403648</v>
+        <v>470362.3099403647</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,13 +26765,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>9.269126437646378</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>157.7848504166386</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>52.17485891332348</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>124.5936350106561</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.7543302155486</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>91.85549473416739</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.19472341080797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>18.8711391480367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.12517627399186e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>80.77020197440538</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>395.7244403717445</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>311.7175659683194</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
